--- a/jayud-mall/jayud-mall-web/src/main/resources/template/nanjing_warehouse_no.xlsx
+++ b/jayud-mall/jayud-mall-web/src/main/resources/template/nanjing_warehouse_no.xlsx
@@ -85,6 +85,95 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -93,13 +182,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -108,14 +190,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -123,37 +213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,68 +224,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,55 +238,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,49 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,73 +406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,78 +429,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -521,6 +449,78 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -535,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,142 +547,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1007,153 +1008,154 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E6"/>
+      <selection activeCell="B7" sqref="B7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="15.7777777777778" customWidth="1"/>
+    <col min="1" max="5" width="15.7777777777778" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="14">
